--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T23:31:21+00:00</t>
+    <t>2022-05-16T00:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Bundle-inline.xlsx
+++ b/StructureDefinition-EP-Bundle-inline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
